--- a/backend/data/products.xlsx
+++ b/backend/data/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,9 @@
       <c r="D1" t="str">
         <v>altText</v>
       </c>
+      <c r="E1" t="str">
+        <v>totalImages</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -429,6 +432,9 @@
       <c r="D2" t="str">
         <v>Barcelona away jersey 2024 with sleek black design and blue accents for stylish supporters</v>
       </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -443,6 +449,9 @@
       <c r="D3" t="str">
         <v>Striker Store Real Madrid away jersey 2024-25 in vibrant orange with Emirates logo</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -457,6 +466,9 @@
       <c r="D4" t="str">
         <v>Real Madrid 2024 home jersey featuring the Emirates logo and classic white design</v>
       </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -471,6 +483,9 @@
       <c r="D5" t="str">
         <v>Striker Store Vegeta fan jersey featuring vibrant comic-inspired graphics and a stylish design</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -485,6 +500,9 @@
       <c r="D6" t="str">
         <v>Retro Real Madrid 2017-18 jersey in teal blue with Emirates logo and geometric design</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -499,6 +517,9 @@
       <c r="D7" t="str">
         <v>Striker Store Italy fan jersey 2024 in blue with Italia badge and breathable fabric</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -513,6 +534,9 @@
       <c r="D8" t="str">
         <v>Brazil football jersey 2024 in yellow with unique design and green accents by Striker Store</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -527,6 +551,9 @@
       <c r="D9" t="str">
         <v>Liverpool home jersey 2024-25 featuring classic red design and club logo for fans and players</v>
       </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -541,6 +568,9 @@
       <c r="D10" t="str">
         <v>Bayern Munich 2024-25 jersey in red by Striker Store featuring classic team details</v>
       </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -555,6 +585,9 @@
       <c r="D11" t="str">
         <v>Manchester United 2024 home jersey in red with Snapdragon logo and classic design</v>
       </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -569,6 +602,9 @@
       <c r="D12" t="str">
         <v>Real Madrid Black Dragon Jersey with intricate dragon design and Emirates sponsor logo</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -583,6 +619,9 @@
       <c r="D13" t="str">
         <v>Striker Store Real Madrid player version jersey in purple with Emirates branding and graphic design</v>
       </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -597,6 +636,9 @@
       <c r="D14" t="str">
         <v>Barcelona Away Jersey 2024-25 featuring black design with blue accents and sponsor logos</v>
       </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -611,6 +653,9 @@
       <c r="D15" t="str">
         <v>Striker Store Real Madrid 2024-25 player jersey in grey with Emirates logo and Adidas branding</v>
       </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -625,6 +670,9 @@
       <c r="D16" t="str">
         <v>Manchester United Third Jersey 2024 featuring a classic design with bold colors and Snapdragon logo</v>
       </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -639,6 +687,9 @@
       <c r="D17" t="str">
         <v>Liverpool 2024 third jersey featuring a modern design and logo from Striker Store</v>
       </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -653,6 +704,9 @@
       <c r="D18" t="str">
         <v>AC Milan 2024-25 Third Jersey in dark grey with mint accents and Puma logo</v>
       </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -667,6 +721,9 @@
       <c r="D19" t="str">
         <v>Brazil 2024-25 away jersey designed with a vibrant blue wave pattern and green accents</v>
       </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -681,6 +738,9 @@
       <c r="D20" t="str">
         <v>Portugal away jersey 2024 by Striker Store, featuring a modern design with vibrant colors</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -695,6 +755,9 @@
       <c r="D21" t="str">
         <v>Italy away jersey 2024-25 by Striker Store in white with green and red details</v>
       </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -709,6 +772,9 @@
       <c r="D22" t="str">
         <v>Italy 2024-25 home jersey by Striker Store featuring vibrant blue design and iconic Italian crest</v>
       </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -723,6 +789,9 @@
       <c r="D23" t="str">
         <v>Al Nassr player version jersey 2024 in yellow and blue with team logo and adidas branding</v>
       </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -737,6 +806,9 @@
       <c r="D24" t="str">
         <v>Belgium 2024 home jersey featuring a vibrant red design with gold accents and black details</v>
       </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -751,6 +823,9 @@
       <c r="D25" t="str">
         <v>Brazil away jersey 2024-25 featuring a vibrant blue design with the national team logo</v>
       </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -765,6 +840,9 @@
       <c r="D26" t="str">
         <v>Striker Store Paris home jersey 2024-25 featuring a bold design in navy blue and red accents</v>
       </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -779,6 +857,9 @@
       <c r="D27" t="str">
         <v>France Home Jersey 2024-25 in blue with iconic rooster emblem and Nike logo</v>
       </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -793,6 +874,9 @@
       <c r="D28" t="str">
         <v>Germany Home Jersey 2024-25 by Striker Store with iconic colors and emblem detail</v>
       </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -807,6 +891,9 @@
       <c r="D29" t="str">
         <v>Real Madrid Y3 jersey fan version in purple with floral graphic and iconic club logo</v>
       </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -821,6 +908,9 @@
       <c r="D30" t="str">
         <v>Chelsea away jersey 2024 featuring a white design with blue accents and Nike logo</v>
       </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -835,6 +925,9 @@
       <c r="D31" t="str">
         <v>Striker Store Japan Dragon Ball Z jersey featuring vibrant blue designs and iconic characters</v>
       </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -849,6 +942,9 @@
       <c r="D32" t="str">
         <v>Striker Store England player jersey 2024 in white with navy accents and iconic crest</v>
       </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -863,6 +959,9 @@
       <c r="D33" t="str">
         <v>Retro Real Madrid jersey 2016-17 in purple with Fly Emirates logo and adidas branding</v>
       </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -877,6 +976,9 @@
       <c r="D34" t="str">
         <v>Manchester United Third Jersey 2024 featuring a modern design and comfortable fit for fans</v>
       </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -891,6 +993,9 @@
       <c r="D35" t="str">
         <v>Striker Store Retro Argentina World Cup Jersey 2014 in navy blue with golden accents and team crest</v>
       </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -905,6 +1010,9 @@
       <c r="D36" t="str">
         <v>Manchester United 2007-08 Champions League jersey in red featuring Nike logo and AIG sponsor</v>
       </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -919,6 +1027,9 @@
       <c r="D37" t="str">
         <v>Italy away jersey 2024 by Striker Store in white with green and red accents</v>
       </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -933,6 +1044,9 @@
       <c r="D38" t="str">
         <v>Argentina away jersey 2024 featuring team logo and vibrant blue design for soccer enthusiasts</v>
       </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -947,6 +1061,9 @@
       <c r="D39" t="str">
         <v>Chelsea Away Jersey 2024 in white with blue accents and logo for fans and players</v>
       </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -961,6 +1078,9 @@
       <c r="D40" t="str">
         <v>Retro Manchester United jersey 2008 in black with red accents and AIG logo for fans and collectors</v>
       </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -975,6 +1095,9 @@
       <c r="D41" t="str">
         <v>Inter Milan away jersey 2024 by Striker Store featuring a white design and blue accents</v>
       </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -989,6 +1112,9 @@
       <c r="D42" t="str">
         <v>Portugal home jersey 2024 in red with green trim and the national emblem on the chest</v>
       </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1003,6 +1129,9 @@
       <c r="D43" t="str">
         <v>Paris 2024 home jersey by Striker Store featuring the Nike logo and Qatar Airways sponsorship</v>
       </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1017,6 +1146,9 @@
       <c r="D44" t="str">
         <v>Vibrant yellow Al Nassr fan jersey 2024 with blue accents for dedicated supporters</v>
       </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1031,6 +1163,9 @@
       <c r="D45" t="str">
         <v>Real Madrid Dragon Jersey 2014-15 featuring a unique dragon design and Fly Emirates logo</v>
       </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1045,6 +1180,9 @@
       <c r="D46" t="str">
         <v>Bayern Munich Home Jersey 2024 in vibrant red with iconic team logo and stylish design</v>
       </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1059,6 +1197,9 @@
       <c r="D47" t="str">
         <v>Arsenal Third Jersey 2024 in light blue with Emirates Fly Better branding and adidas logo</v>
       </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1073,6 +1214,9 @@
       <c r="D48" t="str">
         <v>Manchester United jersey 2024-25 in red with Snapdragon logo for fans and players</v>
       </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1087,6 +1231,9 @@
       <c r="D49" t="str">
         <v>2004 Arsenal home jersey in red and white featuring the O2 logo and classic design</v>
       </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1101,6 +1248,9 @@
       <c r="D50" t="str">
         <v>Chelsea home jersey 2024-25 featuring a vibrant blue swirl design from Striker Store</v>
       </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1115,6 +1265,9 @@
       <c r="D51" t="str">
         <v/>
       </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1129,6 +1282,9 @@
       <c r="D52" t="str">
         <v>AC Milan away jersey 2024 in white with red accents and Emirates logo for fans</v>
       </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1143,6 +1299,9 @@
       <c r="D53" t="str">
         <v>Germany away jersey 2024-25 player version in pink and purple gradient by Striker Store</v>
       </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1157,6 +1316,9 @@
       <c r="D54" t="str">
         <v>Liverpool away jersey 2024-25 fan version in black with turquoise accents and club logo</v>
       </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1171,6 +1333,9 @@
       <c r="D55" t="str">
         <v>Real Madrid Home Jersey 2017-18 featuring the iconic white design with blue accents and club logo</v>
       </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1185,6 +1350,9 @@
       <c r="D56" t="str">
         <v>Arsenal away jersey 2024-25 in black with green accents and Emirates logo for fans and players</v>
       </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1199,6 +1367,9 @@
       <c r="D57" t="str">
         <v>Retro Real Madrid 2006-07 jersey black with white accents and team logo by Striker Store</v>
       </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1213,6 +1384,9 @@
       <c r="D58" t="str">
         <v>Manchester City home jersey 2024 in blue with club logo and Etihad Airways branding</v>
       </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1227,6 +1401,9 @@
       <c r="D59" t="str">
         <v>Paris Away Jersey 2024-25 featuring a white design with bold graphics and Qatar Airways logo</v>
       </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1241,6 +1418,9 @@
       <c r="D60" t="str">
         <v>Spain Home Jersey 2024-25 fan version in vibrant red with yellow accents and emblem</v>
       </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1255,6 +1435,9 @@
       <c r="D61" t="str">
         <v>Portugal 2012 away jersey by Striker Store featuring iconic design with green and red accents</v>
       </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1269,6 +1452,9 @@
       <c r="D62" t="str">
         <v>Barcelona third jersey 2024 in neon green with Spotify logo and modern design features</v>
       </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1283,6 +1469,9 @@
       <c r="D63" t="str">
         <v>Germany 2024-25 away jersey in pink and purple with Adidas logo and gradient design</v>
       </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1297,6 +1486,9 @@
       <c r="D64" t="str">
         <v>Real Madrid 2024-25 third jersey in gray with Emirates logo and Adidas branding for football fans</v>
       </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1311,6 +1503,9 @@
       <c r="D65" t="str">
         <v>Liverpool Home Jersey 2024 featuring Nike logo and standard chartered sponsor in vibrant red design</v>
       </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1325,6 +1520,9 @@
       <c r="D66" t="str">
         <v>Inter Miami 2024 jersey in aqua blue with white lettering and striped design</v>
       </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1339,6 +1537,9 @@
       <c r="D67" t="str">
         <v>Retro Liverpool 2005 jersey featuring classic red color and Carlsberg sponsor logo</v>
       </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1353,6 +1554,9 @@
       <c r="D68" t="str">
         <v>AC Milan away jersey 2024-25 in white with black and red accents, featuring the Emirates logo</v>
       </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1367,6 +1571,9 @@
       <c r="D69" t="str">
         <v>Striker Store Fan version Arsenal jersey in black with green and red accents and club logo</v>
       </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1381,6 +1588,9 @@
       <c r="D70" t="str">
         <v>Inter Milan third jersey player version in yellow with graphic design and club logo</v>
       </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1395,6 +1605,9 @@
       <c r="D71" t="str">
         <v>Chelsea 2024 Third Jersey Player Version in black with pink detailing and unique pattern design</v>
       </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1409,6 +1622,9 @@
       <c r="D72" t="str">
         <v>2024-25 Spain player version jersey in vibrant red with yellow accents and team crest</v>
       </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1423,6 +1639,9 @@
       <c r="D73" t="str">
         <v>Portugal Home Jersey 2024 by Striker Store in vibrant red with green accents and team crest</v>
       </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1437,6 +1656,9 @@
       <c r="D74" t="str">
         <v>Inter Miami 2024-25 away jersey in black with pink accents and club logo for fans and players</v>
       </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1451,6 +1673,9 @@
       <c r="D75" t="str">
         <v>Real Madrid Dragon Jersey featuring a unique dragon design with Emirates logo and Adidas branding</v>
       </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1465,6 +1690,9 @@
       <c r="D76" t="str">
         <v>Brazil home jersey 2024 player version in vibrant yellow with intricate designs and team logo</v>
       </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1479,6 +1707,9 @@
       <c r="D77" t="str">
         <v>Manchester United 2024-25 away jersey in navy blue with logo and sponsor graphics</v>
       </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1493,6 +1724,9 @@
       <c r="D78" t="str">
         <v>Bayern Munich away jersey 2024 featuring a unique black and teal design with club logo</v>
       </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1507,6 +1741,9 @@
       <c r="D79" t="str">
         <v>Liverpool third jersey 2024-25 in white with red accents and club logo for football fans</v>
       </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1521,6 +1758,9 @@
       <c r="D80" t="str">
         <v>Striker Store AC Milan third jersey fan version 2024 in dark gray with mint accents and Emirates logo</v>
       </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1535,6 +1775,9 @@
       <c r="D81" t="str">
         <v>Belgium home jersey 2024 by Striker Store featuring a red design with gold accents</v>
       </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1549,6 +1792,9 @@
       <c r="D82" t="str">
         <v>Germany home jersey 2024-25 by Striker Store featuring black, red, and yellow accents</v>
       </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1563,6 +1809,9 @@
       <c r="D83" t="str">
         <v>Manchester City full sleeve jersey 2024 in sky blue with ETIHAD AIRWAYS logo and Puma branding</v>
       </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1577,6 +1826,9 @@
       <c r="D84" t="str">
         <v>Chelsea third jersey 2024 fan version in black with pink accents and dynamic design</v>
       </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1591,6 +1843,9 @@
       <c r="D85" t="str">
         <v>Striker Store Real Madrid Dragon Jersey 2024-25 with color dragon design and Emirates logo</v>
       </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1605,6 +1860,9 @@
       <c r="D86" t="str">
         <v>Real Madrid jersey fan version in white with Emirates logo and Adidas branding</v>
       </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1619,6 +1877,9 @@
       <c r="D87" t="str">
         <v>Real Madrid Y3 jersey 2024 in purple with floral design and Emirates logo for football fans</v>
       </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1633,6 +1894,9 @@
       <c r="D88" t="str">
         <v>Inter Miami home jersey 2024 in pink with black accents and club logo for fans</v>
       </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1647,6 +1911,9 @@
       <c r="D89" t="str">
         <v>Striker Store Paris Away Jersey 2024-25 in White with Bold Red and Blue Accents</v>
       </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1661,6 +1928,9 @@
       <c r="D90" t="str">
         <v>Chelsea home jersey 2024 in vibrant blue with unique swirling design from Striker Store</v>
       </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1675,6 +1945,9 @@
       <c r="D91" t="str">
         <v>2024 Portugal away fan jersey featuring a unique abstract design for passionate supporters</v>
       </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1689,6 +1962,9 @@
       <c r="D92" t="str">
         <v>Manchester United away jersey 2024 in blue with classic collar and logo detail</v>
       </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1703,6 +1979,9 @@
       <c r="D93" t="str">
         <v>Arsenal 2024 home jersey featuring a bold red design with white accents and Emirates branding</v>
       </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1717,6 +1996,9 @@
       <c r="D94" t="str">
         <v>Manchester City away jersey 2024-25 in black and neon with club logo and sponsor branding</v>
       </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1731,6 +2013,9 @@
       <c r="D95" t="str">
         <v>Retro AC Milan Jersey 2006-07 with black and red stripes and sponsor logo for football fans</v>
       </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1745,6 +2030,9 @@
       <c r="D96" t="str">
         <v>Barcelona 2014-15 home jersey by Striker Store with iconic red and blue stripes and Qatar Airways logo</v>
       </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1759,6 +2047,9 @@
       <c r="D97" t="str">
         <v>Inter Milan 2024-25 home jersey in blue and black with Nike logo and Betsson sponsor</v>
       </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1773,6 +2064,9 @@
       <c r="D98" t="str">
         <v>2024 player version Croatia jersey with iconic checkered design and Nike logo for fans and players</v>
       </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1787,6 +2081,9 @@
       <c r="D99" t="str">
         <v>Barcelona Home Jersey 2024 in red and blue with team logo and Spotify branding</v>
       </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1801,6 +2098,9 @@
       <c r="D100" t="str">
         <v>AC Milan 2024 jersey featuring bold red and black stripes with Emirates logo on the front</v>
       </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1815,6 +2115,9 @@
       <c r="D101" t="str">
         <v>Retro Argentina 1998 jersey featuring blue and white vertical stripes and the AFA logo</v>
       </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1829,6 +2132,9 @@
       <c r="D102" t="str">
         <v>Barcelona Home Jersey 2024 by Striker Store in classic blue and red design with team logo</v>
       </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1843,6 +2149,9 @@
       <c r="D103" t="str">
         <v>Barcelona 2008-09 home jersey featuring blue and maroon colors with Unicef logo</v>
       </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1857,6 +2166,9 @@
       <c r="D104" t="str">
         <v>Arsenal home jersey 2024 player version featuring vibrant red and white colors with sponsor logo</v>
       </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1871,6 +2183,9 @@
       <c r="D105" t="str">
         <v>Barcelona Home Kit 2024 by Striker Store, featuring the iconic red and blue design and Nike logo</v>
       </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1885,6 +2200,9 @@
       <c r="D106" t="str">
         <v>Barcelona 2004-05 retro jersey featuring classic blue and red stripes with Nike logo</v>
       </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1899,6 +2217,9 @@
       <c r="D107" t="str">
         <v>Inter Milan home jersey 2024-25 with blue and black stripes, featuring the club logo and sponsor branding</v>
       </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1913,6 +2234,9 @@
       <c r="D108" t="str">
         <v>Barcelona full sleeve jersey 2024 with iconic colors and Spotify logo for fans and collectors</v>
       </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1927,6 +2251,9 @@
       <c r="D109" t="str">
         <v>Manchester City away jersey player version with bright stripes and club logo for fans and players</v>
       </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1941,6 +2268,9 @@
       <c r="D110" t="str">
         <v>Retro Barcelona jersey 1999 in red and blue colors with Nike logo and club crest</v>
       </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1955,6 +2285,9 @@
       <c r="D111" t="str">
         <v>Argentina anniversary jersey featuring classic blue and white stripes with gold detailing</v>
       </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1969,6 +2302,9 @@
       <c r="D112" t="str">
         <v>Argentina football jersey 2024 featuring blue and white stripes with FIFA logo and AFA badge</v>
       </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1983,6 +2319,9 @@
       <c r="D113" t="str">
         <v>Kids Arsenal jersey 2024 featuring a red top and white shorts with blue accents for young fans</v>
       </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1997,6 +2336,9 @@
       <c r="D114" t="str">
         <v>Kids Arsenal Third Jersey 2024-25 featuring a vibrant design with shorts, perfect for young fans</v>
       </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -2011,6 +2353,9 @@
       <c r="D115" t="str">
         <v>Kids Manchester City Home Jersey 2024 featuring blue shirt and white shorts for young fans</v>
       </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -2025,6 +2370,9 @@
       <c r="D116" t="str">
         <v>Manchester City jersey 2024 featuring a unique gradient design and the Etihad Airways logo</v>
       </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -2039,6 +2387,9 @@
       <c r="D117" t="str">
         <v>Bayern Munich 2024-25 third jersey in cream with red accents and Adidas logo for fans and collectors</v>
       </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -2053,6 +2404,9 @@
       <c r="D118" t="str">
         <v>Argentina Copa Home Jersey 2024-25 featuring blue and white stripes with FIFA and AFA logos</v>
       </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -2067,6 +2421,9 @@
       <c r="D119" t="str">
         <v>Argentina home jersey 2024 with light blue and white stripes and official team emblems</v>
       </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -2081,6 +2438,9 @@
       <c r="D120" t="str">
         <v>Spain away jersey 2024-25 by Striker Store in bright yellow with red accents and logo</v>
       </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -2095,6 +2455,9 @@
       <c r="D121" t="str">
         <v>Bayern Munich 2024 jersey in cream with red accents and club logo from Striker Store</v>
       </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -2109,6 +2472,9 @@
       <c r="D122" t="str">
         <v>Manchester City third jersey 2024 in burgundy with gold detailing and club logo</v>
       </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -2123,6 +2489,9 @@
       <c r="D123" t="str">
         <v>Argentina 2022 World Cup jersey featuring blue and white stripes and official FIFA badge</v>
       </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -2137,6 +2506,9 @@
       <c r="D124" t="str">
         <v>Mexico jersey 2024 player version featuring a vibrant design with green and red patterns</v>
       </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -2151,6 +2523,9 @@
       <c r="D125" t="str">
         <v>Spain away jersey 2024-25 by Striker Store in bright yellow with red accents and emblem</v>
       </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -2165,6 +2540,9 @@
       <c r="D126" t="str">
         <v>Belgium away jersey 2024 in light blue with embroidered team logo and stylish design</v>
       </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -2179,6 +2557,9 @@
       <c r="D127" t="str">
         <v>Manchester City 2024 third jersey in maroon with logo and Etihad Airways branding</v>
       </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -2193,6 +2574,9 @@
       <c r="D128" t="str">
         <v>Kids Barcelona Jersey 2024-25 in green with shorts, perfect for young soccer fans</v>
       </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -2207,6 +2591,9 @@
       <c r="D129" t="str">
         <v>Kids Arsenal Away Jersey 2024 in black with Emirates logo and matching shorts for young fans</v>
       </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -2221,6 +2608,9 @@
       <c r="D130" t="str">
         <v>Kids Barcelona Jersey 2024 from Striker Store featuring a vibrant red and blue design</v>
       </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -2235,6 +2625,9 @@
       <c r="D131" t="str">
         <v>Kids Manchester United jersey 2024 in navy with matching shorts for young soccer fans</v>
       </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -2249,6 +2642,9 @@
       <c r="D132" t="str">
         <v>Kids Real Madrid Jersey 2024 Set with White Shirt and Shorts featuring Emirates logo</v>
       </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -2263,6 +2659,9 @@
       <c r="D133" t="str">
         <v>Kids Manchester United jersey 2024 set featuring a white shirt and black shorts with sporty design</v>
       </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -2277,6 +2676,9 @@
       <c r="D134" t="str">
         <v>Real Madrid kids jersey 2024 in orange with shorts, featuring Emirates logo and Adidas design</v>
       </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -2291,6 +2693,9 @@
       <c r="D135" t="str">
         <v>Kids Manchester United jersey 2024 Set with Red Shirt and White Shorts from Striker Store</v>
       </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -2305,6 +2710,9 @@
       <c r="D136" t="str">
         <v>Kids Manchester City jersey 2024-25 in maroon with matching shorts and club logo from Striker Store</v>
       </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -2319,6 +2727,9 @@
       <c r="D137" t="str">
         <v>Kids Real Madrid Jersey 2024 Black Set with Shorts and Iconic Club Logo for Young Fans</v>
       </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -2333,19 +2744,25 @@
       <c r="D138" t="str">
         <v>Kids Manchester City away jersey set with black and bright yellow design, perfect for young fans</v>
       </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
         <v>gid://shopify/Product/10129330635036</v>
       </c>
       <c r="B139" t="str">
-        <v>Kids Liverpool Home Jersey 2024-25</v>
+        <v>Kids Liverpool Home Kit 2025-26</v>
       </c>
       <c r="C139" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-liverpool-jersey-2024-red-shorts-set.png?v=1745640767</v>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-liverpool-home-kit-2025-26-red-set-jersey-shorts.png?v=1757114858</v>
       </c>
       <c r="D139" t="str">
-        <v>Kids Liverpool Jersey 2024 Set featuring red jersey and shorts, perfect for young fans</v>
+        <v>Kids Liverpool home kit 2025-26 featuring a red jersey with shorts and club logo for young fans</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -2361,6 +2778,9 @@
       <c r="D140" t="str">
         <v>Kids Chelsea 2024 Home Jersey Set in Blue with Unique Swirl Design for Young Fans</v>
       </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -2375,6 +2795,9 @@
       <c r="D141" t="str">
         <v>Kids Inter Miami jersey 2024 in teal with orange accents and adidas logo for young soccer fans</v>
       </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -2389,6 +2812,9 @@
       <c r="D142" t="str">
         <v>Kids Argentina football jersey 2024 set in blue and white with gold accents from Striker Store</v>
       </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -2403,6 +2829,9 @@
       <c r="D143" t="str">
         <v>Manchester United 2024 jersey in red with white stripes and Snapdragon logo, perfect for fans</v>
       </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -2417,6 +2846,9 @@
       <c r="D144" t="str">
         <v>India Test Cricket Jersey 2025 by Striker Store with Blue Detailing and Polo Collar Design</v>
       </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -2431,6 +2863,9 @@
       <c r="D145" t="str">
         <v>Gujarat Titans fan jersey 2025 in navy with stylish design and team logos for sports enthusiasts</v>
       </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -2445,6 +2880,9 @@
       <c r="D146" t="str">
         <v>Chennai Super Kings 2025 jersey in yellow with camo design and team logos for cricket fans</v>
       </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -2459,6 +2897,9 @@
       <c r="D147" t="str">
         <v>Mumbai Indians fan jersey 2025 in blue with stylish design and logo for cricket enthusiasts</v>
       </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -2473,6 +2914,9 @@
       <c r="D148" t="str">
         <v>Kolkata Knight Riders 2025 jersey in purple with yellow accents and team logos</v>
       </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -2487,6 +2931,9 @@
       <c r="D149" t="str">
         <v/>
       </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -2501,6 +2948,9 @@
       <c r="D150" t="str">
         <v>Punjab Kings jersey 2025 in red with stylish design and team logos for cricket fans</v>
       </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -2515,6 +2965,9 @@
       <c r="D151" t="str">
         <v/>
       </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -2529,6 +2982,9 @@
       <c r="D152" t="str">
         <v>2025 India cricket jersey by Striker Store in blue with green and orange accents</v>
       </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -2543,6 +2999,9 @@
       <c r="D153" t="str">
         <v>Striker Store India ODI cricket jersey 2025 in blue with national colors and team logo</v>
       </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -2557,6 +3016,9 @@
       <c r="D154" t="str">
         <v>India ODI cricket jersey 2024 in blue with orange accents and adidas logo for cricket fans</v>
       </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -2571,6 +3033,9 @@
       <c r="D155" t="str">
         <v>Real Madrid home jersey 2024-25 in white with black stripes and Emirates logo for fans</v>
       </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -2585,6 +3050,9 @@
       <c r="D156" t="str">
         <v>Real Madrid 2024-25 home jersey by Striker Store in white with black detailing and club badge</v>
       </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -2599,6 +3067,9 @@
       <c r="D157" t="str">
         <v>Striker Store Manchester United fan jersey 2024-25 in red with Adidas branding and Snapdragon logo</v>
       </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -2608,10 +3079,13 @@
         <v>Real Madrid SE Jersey 2024-25 Player Version</v>
       </c>
       <c r="C158" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/real-madrid-fan-jersey-2024-emirates-logo.png?v=1745990735</v>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-white-gold-jersey-2024-25-full-front-emirates-logo.png?v=1754337827</v>
       </c>
       <c r="D158" t="str">
-        <v>Striker Store Real Madrid fan jersey 2024 in white with gold accents and Adidas logo</v>
+        <v>Real Madrid white gold jersey 2024-25 with Emirates Fly Better logo and gold accents from Striker Store</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -2627,6 +3101,9 @@
       <c r="D159" t="str">
         <v>Real Madrid gold jersey 2023 by Striker Store with iconic logo and stylish design</v>
       </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -2641,6 +3118,9 @@
       <c r="D160" t="str">
         <v>Striker Store Real Madrid gold jersey 2023-24 with a sleek black design and yellow accents</v>
       </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -2655,6 +3135,9 @@
       <c r="D161" t="str">
         <v/>
       </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -2669,6 +3152,9 @@
       <c r="D162" t="str">
         <v>Barcelona SE Red Jersey 2024 with bold graphics and prominent team logo for fans</v>
       </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -2683,6 +3169,9 @@
       <c r="D163" t="str">
         <v>Striker Store PSG 2024 fourth jersey in navy blue featuring Qatar Airways logo and Jordan branding</v>
       </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -2697,6 +3186,9 @@
       <c r="D164" t="str">
         <v>Striker Store PSG Fourth Jersey 2024-25 in Navy Blue with Wing Design and Qatar Airways Logo</v>
       </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -2711,6 +3203,9 @@
       <c r="D165" t="str">
         <v>Bayern Munich 125th Anniversary Jersey in red with gold accents and club logo for supporters</v>
       </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -2725,6 +3220,9 @@
       <c r="D166" t="str">
         <v>Bayern Munich 125th anniversary jersey in red with gold accents and club emblem</v>
       </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -2739,6 +3237,9 @@
       <c r="D167" t="str">
         <v>Retro Manchester United jersey 2008-09 in blue by Striker Store with classic logo and Nike branding</v>
       </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -2753,6 +3254,9 @@
       <c r="D168" t="str">
         <v>Real Madrid pink dragon jersey featuring a unique dragon design and embroidered team logo</v>
       </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -2767,6 +3271,9 @@
       <c r="D169" t="str">
         <v>Real Madrid green dragon jersey featuring dragon graphics and a classic collar design</v>
       </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -2776,10 +3283,13 @@
         <v>Real Madrid Home 2025-26 Jersey Player Version</v>
       </c>
       <c r="C170" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/real-madrid-2025-home-jersey-front-view.png?v=1747372057</v>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-2025-home-jersey-product-front-full-view-emirates-crest.png?v=1756510573</v>
       </c>
       <c r="D170" t="str">
-        <v>Real Madrid 2025 home jersey with Emirates logo and black accented stripes for fans</v>
+        <v>Striker Store Real Madrid 2025 home jersey white with gold piping Adidas logo and Emirates Fly Better sponsor</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -2795,6 +3305,9 @@
       <c r="D171" t="str">
         <v/>
       </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -2809,6 +3322,9 @@
       <c r="D172" t="str">
         <v>Manchester United CNY 2024 Jersey by Striker Store with vibrant red and black design</v>
       </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -2823,6 +3339,9 @@
       <c r="D173" t="str">
         <v>Brazil 2025 home jersey in yellow with green accents and official logo for fans and players</v>
       </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -2837,6 +3356,9 @@
       <c r="D174" t="str">
         <v>Brazil home jersey 2025 in vibrant yellow with green accents and official logo by Striker Store</v>
       </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -2851,6 +3373,9 @@
       <c r="D175" t="str">
         <v>Brazil away jersey 2025-26 in blue with vibrant patterns and Nike logo for fans and players</v>
       </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -2865,6 +3390,9 @@
       <c r="D176" t="str">
         <v>Brazil 2025-26 away jersey featuring a blue design with vibrant patterns and the Brasil logo</v>
       </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -2879,6 +3407,9 @@
       <c r="D177" t="str">
         <v/>
       </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -2893,6 +3424,9 @@
       <c r="D178" t="str">
         <v/>
       </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -2907,6 +3441,9 @@
       <c r="D179" t="str">
         <v>2025-26 Arsenal player version kit in vibrant red and white with Emirates branding</v>
       </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -2921,6 +3458,9 @@
       <c r="D180" t="str">
         <v/>
       </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -2935,6 +3475,9 @@
       <c r="D181" t="str">
         <v>Striker Store Dragon Ball Z fan jersey featuring a vibrant Goku design with fiery colors</v>
       </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -2949,6 +3492,9 @@
       <c r="D182" t="str">
         <v/>
       </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -2963,6 +3509,9 @@
       <c r="D183" t="str">
         <v/>
       </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -2977,6 +3526,9 @@
       <c r="D184" t="str">
         <v>AC Milan Off White Jersey 2024 featuring a stylish gradient design and prominent Emirates branding</v>
       </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -2991,6 +3543,9 @@
       <c r="D185" t="str">
         <v>AC Milan Off White jersey 2024 featuring a sleek black design with Emirates branding</v>
       </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -3005,6 +3560,9 @@
       <c r="D186" t="str">
         <v>AC Milan goalkeeper jersey 2024 in red and green with sponsor logos and stylish design</v>
       </c>
+      <c r="E186">
+        <v>5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -3019,6 +3577,9 @@
       <c r="D187" t="str">
         <v>AC Milan goalkeeper jersey 2024 in red and green design by Striker Store with gold accents</v>
       </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -3033,6 +3594,9 @@
       <c r="D188" t="str">
         <v>Real Madrid 2024 Player Jersey in Purple Tie-Dye with Adidas Logo for Fans</v>
       </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -3047,6 +3611,9 @@
       <c r="D189" t="str">
         <v>Nike Mercurial Vapor 16 Sky-Blue Football Boot with a sleek design and vibrant detailing</v>
       </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -3061,6 +3628,9 @@
       <c r="D190" t="str">
         <v>Phantom GX football boots pink with a sleek design and high-performance traction for enhanced gameplay</v>
       </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -3075,6 +3645,9 @@
       <c r="D191" t="str">
         <v>Bright pink Mercurial Vapor 13 soccer cleats with a sleek design for enhanced performance on the field</v>
       </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -3089,6 +3662,9 @@
       <c r="D192" t="str">
         <v>Striker Store Mercurial Vapor 16 Green Black Football Boot with lightweight design for enhanced speed</v>
       </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -3103,6 +3679,9 @@
       <c r="D193" t="str">
         <v>Nike Mercurial Vapor 16 football boots in vibrant yellow with stylish design for optimal performance</v>
       </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -3117,6 +3696,9 @@
       <c r="D194" t="str">
         <v>Striker Store Mercurial Vapor 16 Elite FG boots in vibrant red with a sleek design for enhanced performance.</v>
       </c>
+      <c r="E194">
+        <v>6</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -3131,6 +3713,9 @@
       <c r="D195" t="str">
         <v>Mercurial Superfly 5 Golden boots with a sleek design for enhanced performance on the field</v>
       </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -3145,6 +3730,9 @@
       <c r="D196" t="str">
         <v>Phantom GT2 Dynamic Fit Sky Blue cleats designed for precision and agility on the football field</v>
       </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -3159,6 +3747,9 @@
       <c r="D197" t="str">
         <v>Mercurial Vapor 13 Elite white shoes designed for superior grip and speed on the pitch</v>
       </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -3173,6 +3764,9 @@
       <c r="D198" t="str">
         <v>Mercurial Vapor 16 soccer cleats in white with colorful design for optimal performance on the field</v>
       </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -3187,6 +3781,9 @@
       <c r="D199" t="str">
         <v>Striker Store Mercurial Superfly 9 high tops football boot in white with vibrant color accents</v>
       </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -3201,6 +3798,9 @@
       <c r="D200" t="str">
         <v>Striker Store Mercurial Vapor 16 sea green football boot with vibrant pink swoosh and modern design</v>
       </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -3215,6 +3815,9 @@
       <c r="D201" t="str">
         <v>Mercurial Vapor 16 Elite Mbappe football boot in purple with stylish design for performance on the field</v>
       </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -3229,6 +3832,9 @@
       <c r="D202" t="str">
         <v>Striker Store Mercurial Superfly 5 CR7 Football Boot with Grey Collar and Dynamic Fit Design</v>
       </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -3243,6 +3849,9 @@
       <c r="D203" t="str">
         <v>Nike Mercurial Vapor 13 Elite soccer boots featuring a vibrant design for optimal performance on the field</v>
       </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -3257,6 +3866,9 @@
       <c r="D204" t="str">
         <v>Adidas Predator Pro Red FG soccer cleats designed for optimal performance on the field</v>
       </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -3271,6 +3883,9 @@
       <c r="D205" t="str">
         <v>Side view of Predator Elite football boots in blue and orange with unique design for enhanced performance</v>
       </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -3285,6 +3900,9 @@
       <c r="D206" t="str">
         <v>CrazyFast Light Green Orange Mix Color soccer shoes designed for agility and speed on the field</v>
       </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -3299,6 +3917,9 @@
       <c r="D207" t="str">
         <v>Stylish grey and vibrant multi color football boots designed for optimal performance on the pitch</v>
       </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -3313,6 +3934,9 @@
       <c r="D208" t="str">
         <v>F50 Elite football boots in white with colorful highlights for optimal performance on the pitch</v>
       </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -3327,6 +3951,9 @@
       <c r="D209" t="str">
         <v>Predator Grey And Gold Color FG cleats featuring a sleek design for optimized performance on the field</v>
       </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -3341,6 +3968,9 @@
       <c r="D210" t="str">
         <v>Sky Blue F50 Football Boots designed for precision and speed on the field</v>
       </c>
+      <c r="E210">
+        <v>4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -3355,6 +3985,9 @@
       <c r="D211" t="str">
         <v>Striker Store black and red football shoes with lightweight design for optimal performance on the field</v>
       </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -3369,6 +4002,9 @@
       <c r="D212" t="str">
         <v>Puma yellow low ankle football shoes designed for speed and agility on the pitch</v>
       </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -3383,6 +4019,9 @@
       <c r="D213" t="str">
         <v>Striker Store blue and green soccer cleats designed for optimal traction on the field</v>
       </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -3397,6 +4036,9 @@
       <c r="D214" t="str">
         <v>Puma Future Z football boots in turquoise and purple with dynamic grip for enhanced performance on the pitch</v>
       </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -3411,6 +4053,9 @@
       <c r="D215" t="str">
         <v>India test cricket jersey 2025 by Striker Store in white with blue accents and logo</v>
       </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -3425,6 +4070,9 @@
       <c r="D216" t="str">
         <v/>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -3439,6 +4087,9 @@
       <c r="D217" t="str">
         <v>Chelsea home jersey 2025-26 by Striker Store featuring a blue geometric design and Nike branding</v>
       </c>
+      <c r="E217">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -3453,6 +4104,9 @@
       <c r="D218" t="str">
         <v>Manchester City 2025-26 Home Jersey in sky blue with Etihad Airways logo and stylish design</v>
       </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -3467,6 +4121,9 @@
       <c r="D219" t="str">
         <v>Barcelona Cactus Jack Away SE 2025-26 Player Version Jersey in Black with Stylish Design</v>
       </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -3481,6 +4138,9 @@
       <c r="D220" t="str">
         <v>Mexico de Oro 2025-26 Black jersey with golden accents and logo from Striker Store</v>
       </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -3495,6 +4155,9 @@
       <c r="D221" t="str">
         <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player by Striker Store with unique design and gold accents</v>
       </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -3509,6 +4172,9 @@
       <c r="D222" t="str">
         <v>Inter Miami 2025-26 home jersey in pink with black accents and club logo</v>
       </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -3523,6 +4189,9 @@
       <c r="D223" t="str">
         <v>Inter Miami away jersey 2025-26 featuring black and pink design with club logo and Adidas branding</v>
       </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -3537,6 +4206,9 @@
       <c r="D224" t="str">
         <v>Santos home jersey 2025-26 featuring a white design with sponsor logos and team emblem</v>
       </c>
+      <c r="E224">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -3551,6 +4223,9 @@
       <c r="D225" t="str">
         <v>AC Milan home jersey 2025-26 featuring bold red and black stripes with Emirates branding</v>
       </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -3565,6 +4240,9 @@
       <c r="D226" t="str">
         <v>Bayern Munich 2025-26 away jersey player featuring a unique design and team logo</v>
       </c>
+      <c r="E226">
+        <v>6</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -3579,6 +4257,9 @@
       <c r="D227" t="str">
         <v>Portugal home jersey 2025-26 Player Version in vibrant red with team details and PUMA logo</v>
       </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -3593,6 +4274,9 @@
       <c r="D228" t="str">
         <v>Portugal Away Jersey 2025-26 Player with unique design and Puma logo for soccer fans</v>
       </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -3607,6 +4291,9 @@
       <c r="D229" t="str">
         <v>Germany 125th Anniversary Jersey 2025-26 in white with navy detailing and logo</v>
       </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -3621,6 +4308,9 @@
       <c r="D230" t="str">
         <v/>
       </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -3635,6 +4325,9 @@
       <c r="D231" t="str">
         <v>Liverpool 2025-26 home jersey player version in red with club logo and sponsor branding</v>
       </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -3649,6 +4342,9 @@
       <c r="D232" t="str">
         <v>RCB Virat Kohli Jersey 2025 in navy blue and red with sponsor logos and a modern design</v>
       </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -3663,6 +4359,9 @@
       <c r="D233" t="str">
         <v>Barcelona 125th Anniversary Jersey 2025 featuring traditional red and blue stripes with club emblem</v>
       </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -3677,6 +4376,9 @@
       <c r="D234" t="str">
         <v>Barcelona Cactus Jack 2025-26 player jersey with split colors and logo design by Striker Store</v>
       </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -3691,6 +4393,9 @@
       <c r="D235" t="str">
         <v>Barcelona Travis Scott 2025-26 player version jersey with bold graphics and vibrant colors</v>
       </c>
+      <c r="E235">
+        <v>4</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -3705,6 +4410,9 @@
       <c r="D236" t="str">
         <v>Bayern Munich 2025-26 home jersey featuring a bold red design and an iconic team logo</v>
       </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -3719,6 +4427,9 @@
       <c r="D237" t="str">
         <v>Juventus Home Jersey 25-26 player with iconic black and white stripes and pink accents</v>
       </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -3728,10 +4439,13 @@
         <v>Inter Miami Third Jersey 2025-26 Player Version</v>
       </c>
       <c r="C238" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/inter-miami-2025-26-third-jersey-light-blue-front.png?v=1749118327</v>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-inter-miami-2025-26-third-jersey-front-full-view-white-royal-crest-pink-trim.png?v=1756510648</v>
       </c>
       <c r="D238" t="str">
-        <v>Striker Store Inter Miami 2025-26 Third Jersey in Light Blue with Crest and Striped Details</v>
+        <v>Striker Store Inter Miami 2025-26 Third Jersey light blue adidas trefoil crest with pink and white trim</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
       </c>
     </row>
     <row r="239">
@@ -3747,6 +4461,9 @@
       <c r="D239" t="str">
         <v>Barcelona Home Jersey 2025-26 featuring classic colors and sponsor logo for football fans</v>
       </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -3761,6 +4478,9 @@
       <c r="D240" t="str">
         <v>Striker Store Manchester United 2025-26 home jersey in red with black and white accents</v>
       </c>
+      <c r="E240">
+        <v>6</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -3775,6 +4495,9 @@
       <c r="D241" t="str">
         <v>Paris home jersey 2025 Player Version navy blue with red vertical pattern and Qatar Airways logo</v>
       </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -3789,19 +4512,25 @@
       <c r="D242" t="str">
         <v>Striker Store Inter Milan 2025-26 home jersey with black and blue vertical stripes and sponsor logo</v>
       </c>
+      <c r="E242">
+        <v>6</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
         <v>gid://shopify/Product/10289907466524</v>
       </c>
       <c r="B243" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version</v>
+        <v>Manchester United Special Edition Black Jersey 2025-26 Player Version</v>
       </c>
       <c r="C243" t="str">
         <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-third-jersey-2025-26-player-version-full-front-view.png?v=1752534684</v>
       </c>
       <c r="D243" t="str">
         <v>Manchester United Third Jersey 2025-26 player version black football shirt with club crest and sponsor logo</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -3817,6 +4546,9 @@
       <c r="D244" t="str">
         <v>Manchester City away jersey 2025-26 in white with red and black diagonal stripes by Striker Store</v>
       </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -3831,6 +4563,9 @@
       <c r="D245" t="str">
         <v>Striker Store Arsenal 2025 26 third jersey white football shirt with black accents and Emirates Fly Better logo</v>
       </c>
+      <c r="E245">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -3840,10 +4575,13 @@
         <v>Arsenal Away Jersey 2025-26 Player Version</v>
       </c>
       <c r="C246" t="str">
-        <v/>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-arsenal-away-jersey-2025-26-navy-blue-zigzag-front-red-shoulder-stripes.png?v=1756510758</v>
       </c>
       <c r="D246" t="str">
-        <v/>
+        <v>Striker Store Arsenal away jersey 2025-26 blue zigzag crew neck short sleeve with Emirates Fly Better sponsor</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -3859,6 +4597,9 @@
       <c r="D247" t="str">
         <v>Striker Store FC Barcelona Pink Jersey 2025 with Nike logo and pink gradient design</v>
       </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -3873,6 +4614,9 @@
       <c r="D248" t="str">
         <v>Real Madrid away jersey 2025 26 in black with white Adidas and Emirates Fly Better logos</v>
       </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -3887,6 +4631,9 @@
       <c r="D249" t="str">
         <v>Brazil Christ the Redeemer Jersey 2025 by Striker Store with green collar and yellow design</v>
       </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -3896,10 +4643,13 @@
         <v>Manchester City Away Jersey 2025-26 Player Version</v>
       </c>
       <c r="C250" t="str">
-        <v/>
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-manchester-city-away-jersey-2025-front-view-black-white-accents.png?v=1753951530</v>
       </c>
       <c r="D250" t="str">
-        <v/>
+        <v>Striker Store Manchester City away jersey 2025 in black with white logos and collar detailing</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -3915,10 +4665,710 @@
       <c r="D251" t="str">
         <v>Striker Store Manchester United away jersey 2025-26 in red with black accents and sponsor logos</v>
       </c>
+      <c r="E251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>gid://shopify/Product/10511272050972</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Juventus Away Jersey 25-26 Player Version</v>
+      </c>
+      <c r="C252" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-juventus-away-jersey-25-26-front-full-view-yellow-stripes.png?v=1753002849</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Juventus away jersey 25-26 with light blue geometric pattern and neon yellow stripes from Striker Store</v>
+      </c>
+      <c r="E252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>gid://shopify/Product/10511529705756</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Real Madrid Pre Match Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C253" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-pre-match-jersey-2025-full-front-view.png?v=1753002904</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Striker Store Real Madrid pre match jersey 2025 with blue and green patchwork design</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>gid://shopify/Product/10511530033436</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Chelsea Away Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C254" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-away-jersey-2025-26-front-view-full-shirt.png?v=1753002954</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Striker Store Chelsea away jersey 2025-26 in white with black and red details and Nike logo</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>gid://shopify/Product/10511531311388</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Ac Milan Away Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C255" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/image1_a49993fc-0e74-46ff-bfaf-6ef7eaca526a.png?v=1753003222</v>
+      </c>
+      <c r="D255" t="str">
+        <v/>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>gid://shopify/Product/10511532884252</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Brazil Christ THE REDEEMER Limited Edition Black 2025-26 Jersey Player Version</v>
+      </c>
+      <c r="C256" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-brazil-christ-the-redeemer-jersey-front-full-design.png?v=1753003106</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Brazil Christ the Redeemer jersey by Striker Store featuring dark graphic design and Brazil emblem</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>gid://shopify/Product/10529636712732</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Barcelona Away Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C257" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-barcelona-away-jersey-2025-26-front-spotify-sponsor-black-crest.png?v=1756510497</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Striker Store Barcelona away jersey 2025-26 cream short sleeve kit with black Spotify logo and purple trim</v>
+      </c>
+      <c r="E257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>gid://shopify/Product/10529671184668</v>
+      </c>
+      <c r="B258" t="str">
+        <v>FC Barcelona SE Blue Edition Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C258" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-fc-barcelona-blue-edition-jersey-2025-26-full-front-spotify-sponsor-hanger.png?v=1756510947</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Striker Store FC Barcelona Blue Edition Jersey 2025-26 pink and blue gradient short sleeve kit with Spotify logo</v>
+      </c>
+      <c r="E258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>gid://shopify/Product/10531217801500</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Real Madrid SE White Gold Jersey 2024-25 Player Version</v>
+      </c>
+      <c r="C259" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-white-gold-jersey-2024-25-full-front-emirates-logo.png?v=1754337827</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Real Madrid white gold jersey 2024-25 with Emirates Fly Better logo and gold accents from Striker Store</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>gid://shopify/Product/10531232481564</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Pre Order Ac Milan Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C260" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-ac-milan-2025-26-third-jersey-pre-order-front-full-emirates-logo-green-collar.png?v=1756511069</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Striker Store AC Milan 2025-26 third jersey pre order yellow Puma Emirates shirt with green collar and club crest</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>gid://shopify/Product/10558940971292</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Real Madrid Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C261" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-third-jersey-2025-26-front-full-emirates-trefoil-sleeves.png?v=1755550707</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Real Madrid Third Jersey 2025-26 blue short sleeve soccer jersey with club crest and Emirates Fly Better logo</v>
+      </c>
+      <c r="E261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>gid://shopify/Product/10558952177948</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Manchester City Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C262" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-manchester-city-third-jersey-2025-26-silver-water-drop-front-neon-accents.jpg?v=1755550869</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Striker Store Manchester City Third Jersey 2025-26 grey camo print with neon yellow trim Etihad Airways logo</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>gid://shopify/Product/10558961123612</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Pre Order Bayern Munich Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C263" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-bayern-munich-third-jersey-2025-26-front-straight-telekom-logo-trefoil-crest-allianz.png?v=1755551024</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Striker Store Bayern Munich third jersey 2025-26 black short sleeve with cream logos and red green trim</v>
+      </c>
+      <c r="E263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>gid://shopify/Product/10559012864284</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Tottenham Hotspur Away Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C264" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-tottenham-hotspur-away-jersey-2025-26-black-grid-front-aia-nike-crest.png?v=1755551220</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Striker Store Tottenham Hotspur away jersey 2025-26 black grid pattern Nike AIA sponsor club crest</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>gid://shopify/Product/10559015387420</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Tottenham Hotspur Home Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C265" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-tottenham-hotspur-2025-home-jersey-front-aia-sponsor-white-navy.png?v=1755551422</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Striker Store Tottenham Hotspur 2025 home jersey white Nike shirt with navy shoulder panels and red AIA sponsor logo</v>
+      </c>
+      <c r="E265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>gid://shopify/Product/10562779676956</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Real Madrid US Pack Shirt Special Edition 2025-26</v>
+      </c>
+      <c r="C266" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-special-edition-jersey-2025-26-white-pinstripe-front-full-view.png?v=1756759809</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Striker Store Real Madrid special edition jersey 2025-26 white pinstripe short sleeve football shirt</v>
+      </c>
+      <c r="E266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>gid://shopify/Product/10572194578716</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Liverpool Away Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C267" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-away-jersey-2025-26-cream-front-red-crest-sponsor.png?v=1756150536</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Striker Store Liverpool Away Jersey 2025-26 cream kit with red trim and Standard Chartered sponsor logo</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>gid://shopify/Product/10579554205980</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Pre Order Barcelona Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C268" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-barcelona-third-jersey-2025-26-player-version-coral-orange-front-spotify-crest-nike-swoosh.png?v=1756511197</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Barcelona third jersey 2025-26 player version coral orange Nike kit with navy accents FC Barcelona crest and Spotify logo</v>
+      </c>
+      <c r="E268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>gid://shopify/Product/10579584090396</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Manchester United Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C269" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-manchester-united-2025-26-third-jersey-front-full-snapdragon-trefoil-badge.png?v=1756511351</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Striker Store Manchester United 2025-26 third jersey black with club crest and yellow Snapdragon sponsor logo blue yellow trim</v>
+      </c>
+      <c r="E269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>gid://shopify/Product/10579664404764</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C270" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Striker Store Liverpool home jersey 2025-26 full sleeves red long sleeve football shirt with white logos</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>gid://shopify/Product/10582271820060</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Bayern Munich US Pack Shirt Special Edition 2025-26</v>
+      </c>
+      <c r="C271" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-bayern-munich-special-edition-shirt-2025-navy-pinstripe-button-up-front-crest.png?v=1756759631</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Striker Store Bayern Munich special edition shirt 2025 gray button front jersey with orange shoulder stripes and club crest</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>gid://shopify/Product/10582305210652</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C272" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="D272" t="str">
+        <v>Striker Store Chelsea Third Jersey 2025-26 Player Version black with blue piping white Nike logo and club crest</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>gid://shopify/Product/10586841317660</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Arsenal Away Full Sleeves Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C273" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-away-jersey-2025-26-long-sleeve-front.png?v=1757017340</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Striker Store Arsenal away jersey 2025-26 featuring a dynamic lightning pattern and club logo</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>gid://shopify/Product/10586843054364</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Arsenal Home Full Sleeves Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C274" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-home-jersey-2025-26-player-version-front-view.png?v=1757017250</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Arsenal home jersey 2025-26 player version in red and white with Emirates branding on the front</v>
+      </c>
+      <c r="E274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>gid://shopify/Product/10586845184284</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Manchester United Third Full Sleeves Jersey 2025-26 Player Version</v>
+      </c>
+      <c r="C275" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-third-jersey-2025-26-black-front-view.png?v=1757017426</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Manchester United third jersey 2025-26 in black with yellow accents and emblem from Striker Store</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>gid://shopify/Product/10588055896348</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Kids Arsenal Home Kit 2025-26</v>
+      </c>
+      <c r="C276" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-arsenal-home-kit-2025-26-complete-set.png?v=1757111010</v>
+      </c>
+      <c r="D276" t="str">
+        <v>Kids Arsenal home kit 2025-26 featuring red jersey and white shorts with Emirates branding</v>
+      </c>
+      <c r="E276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>gid://shopify/Product/10588058681628</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Kids AC Milan Home Kit 2025-26</v>
+      </c>
+      <c r="C277" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-ac-milan-home-kit-2025-26-front-view.png?v=1757114564</v>
+      </c>
+      <c r="D277" t="str">
+        <v>Kids AC Milan home kit 2025-26 featuring iconic red and black stripes with Emirates logo</v>
+      </c>
+      <c r="E277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>gid://shopify/Product/10588062220572</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Kids Barca X Travis Scott Retro Kit 2025-26</v>
+      </c>
+      <c r="C278" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-barca-travis-scott-retro-kit-front-view.png?v=1757114631</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Kids Barca Travis Scott retro kit featuring a classic red and blue jersey with matching shorts</v>
+      </c>
+      <c r="E278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>gid://shopify/Product/10588065399068</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Kids Barcelona Home Kit 2025-26</v>
+      </c>
+      <c r="C279" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-barcelona-home-kit-2025-26-front-view.png?v=1757114672</v>
+      </c>
+      <c r="D279" t="str">
+        <v>Kids Barcelona Home Kit 2025-26 by Striker Store featuring jersey and shorts in vibrant colors</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>gid://shopify/Product/10588066840860</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Kids Bayern Munich Home Kit 2025-26</v>
+      </c>
+      <c r="C280" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-bayern-munich-2025-26-home-kit-front-view.png?v=1757111439</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Kids Bayern Munich 2025-26 home kit featuring red and white jersey with shorts for young fans</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>gid://shopify/Product/10588068905244</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Kids Brazil Christ The Redeemer Black Kit 2025-26</v>
+      </c>
+      <c r="C281" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/brazil-christ-the-redeemer-kit-for-kids-front-view.png?v=1757111726</v>
+      </c>
+      <c r="D281" t="str">
+        <v>Brazil Christ the Redeemer kit for kids featuring a graphic tee and shorts in black and yellow</v>
+      </c>
+      <c r="E281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>gid://shopify/Product/10588070281500</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Kids Brazil Christ The Redeemer Yellow Kit 2025-26</v>
+      </c>
+      <c r="C282" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-brazil-football-kit-2025-printed-shirt-and-pants.png?v=1757114736</v>
+      </c>
+      <c r="D282" t="str">
+        <v>Kids Brazil football kit 2025 featuring a vibrant design with Christ the Redeemer and colorful patterns</v>
+      </c>
+      <c r="E282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>gid://shopify/Product/10588073885980</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Kids Real Madrid Away Kit 2025-26</v>
+      </c>
+      <c r="C283" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/real-madrid-kids-away-kit-2025-26-front-view.png?v=1757113116</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Kids Real Madrid away kit 2025-26 featuring a black jersey and shorts with Emirates logo</v>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>gid://shopify/Product/10588077621532</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Kids Manchester City Home Kit 2025-26</v>
+      </c>
+      <c r="C284" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-manchester-city-home-kit-2025-blue-front-view.jpg?v=1757113193</v>
+      </c>
+      <c r="D284" t="str">
+        <v>Kids Manchester City home kit 2025 featuring light blue shirt and white shorts for young fans</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>gid://shopify/Product/10588106817820</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Kids Inter Miami Away Kit 2025-26</v>
+      </c>
+      <c r="C285" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-inter-miami-away-kit-2025-26-front-view.png?v=1757113246</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Kids Inter Miami Away Kit 2025-26 featuring a black jersey and shorts with pink accents</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>gid://shopify/Product/10588112486684</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Kids Manchester United Home Kit 2025-26</v>
+      </c>
+      <c r="C286" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-manchester-united-2025-26-home-kit-front-view.png?v=1757113692</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Kids Manchester United 2025-26 home kit featuring a red jersey with shorts for young fans</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>gid://shopify/Product/10588112781596</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Kids Portugal Home Kit 2025-26</v>
+      </c>
+      <c r="C287" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-kids-portugal-football-kit-2025-26-red-green-socks.png?v=1757114404</v>
+      </c>
+      <c r="D287" t="str">
+        <v>Kids Portugal football kit 2025-26 featuring a red jersey and green shorts for aspiring young players</v>
+      </c>
+      <c r="E287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>gid://shopify/Product/10588846260508</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Kids PSG Home Kit 2025-26</v>
+      </c>
+      <c r="C288" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-psg-home-kit-2025-26-front-view.png?v=1757149788</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Kids PSG home kit 2025-26 jersey set in navy blue with Qatar Airways logo and authentic design</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>gid://shopify/Product/10588852846876</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Kids Juventus Home Kit 2025-26</v>
+      </c>
+      <c r="C289" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-juventus-home-kit-2025-front-view.png?v=1757149850</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Kids Juventus home kit 2025 featuring black and white stripes with pink accents for young fans</v>
+      </c>
+      <c r="E289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>gid://shopify/Product/10588864348444</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Kids Real Madrid Home Kit 2025-26</v>
+      </c>
+      <c r="C290" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-real-madrid-home-kit-2025-26-front-view.png?v=1757149946</v>
+      </c>
+      <c r="D290" t="str">
+        <v>Kids Real Madrid home kit 2025-26 featuring a white jersey and shorts with club insignia</v>
+      </c>
+      <c r="E290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>gid://shopify/Product/10588869787932</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Kids Real Madrid Emerald Flame Kit 2025-26</v>
+      </c>
+      <c r="C291" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-real-madrid-jersey-2025-alternate-front-view.png?v=1757149999</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Kids Real Madrid jersey 2025 set featuring a classic design in black and red with logo details</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>gid://shopify/Product/10589399187740</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Kids Manchester United Away Kit 2025-26</v>
+      </c>
+      <c r="C292" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-manchester-united-away-kit-2025-26-shirt-and-shorts.jpg?v=1757173483</v>
+      </c>
+      <c r="D292" t="str">
+        <v>Kids Manchester United Away Kit 2025-26 featuring a white jersey and purple shorts for young fans</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D251"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E292"/>
   </ignoredErrors>
 </worksheet>
 </file>